--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\P-Seminar\Git Rundgang\Rundgang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F495D5BD-B645-4A0C-A6F8-B122308A4ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4491375-6CA3-40EA-90E9-FBC4CED6A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Todo:</t>
   </si>
@@ -88,29 +88,38 @@
     <t>Aula - ausbessern, wenn das bild da ist</t>
   </si>
   <si>
-    <t>Gang erster stock gerade - bild? Noch nicht da?</t>
-  </si>
-  <si>
     <t>Map:</t>
   </si>
   <si>
     <t>Außenbereich</t>
   </si>
   <si>
-    <t>Maxis Vorschlag - über pfeilen noch buttons für die einzelnen stöcke?</t>
-  </si>
-  <si>
     <t>C bau 1. stock - raum falsch (auf q zimmer)</t>
   </si>
   <si>
     <t>Anmerkungen:</t>
+  </si>
+  <si>
+    <t>Da müssen wir auf hoffman warten</t>
+  </si>
+  <si>
+    <t>Gang erster stock gerade ( neue version einfügen, die alte war etwas schief</t>
+  </si>
+  <si>
+    <t>Treppen Symbole für erleichterte Navigation</t>
+  </si>
+  <si>
+    <t>Stockwerkanzeige (Aufzuglike)</t>
+  </si>
+  <si>
+    <t>Maxis Vorschlag - über pfeilen noch buttons für die einzelnen stöcke? Ja das macht Maxi dann, hoffentlich gefällt es Johnas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +158,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +184,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,11 +199,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,9 +219,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,16 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5112DD3-8621-44E7-A656-18F03BB2DF5F}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="133.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -529,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +575,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,88 +589,104 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
+      <c r="A13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4491375-6CA3-40EA-90E9-FBC4CED6A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABB4533-89DF-4D9A-BD76-91726D2882A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Da müssen wir auf hoffman warten</t>
   </si>
   <si>
-    <t>Gang erster stock gerade ( neue version einfügen, die alte war etwas schief</t>
-  </si>
-  <si>
     <t>Treppen Symbole für erleichterte Navigation</t>
   </si>
   <si>
@@ -113,13 +110,16 @@
   </si>
   <si>
     <t>Maxis Vorschlag - über pfeilen noch buttons für die einzelnen stöcke? Ja das macht Maxi dann, hoffentlich gefällt es Johnas</t>
+  </si>
+  <si>
+    <t>Gang erster stock gerade ( neue version einfügen, die alte war etwas schief)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +165,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +196,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -199,12 +211,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,10 +235,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,7 +560,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,8 +593,8 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
+      <c r="A5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,13 +619,13 @@
       <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
+      <c r="A10" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
+      <c r="A11" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,8 +649,8 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
+      <c r="A17" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -676,7 +695,7 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\P-Seminar\Git Rundgang\Rundgang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABB4533-89DF-4D9A-BD76-91726D2882A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85FC9D-9C59-41C1-8401-6695E32F4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Todo:</t>
   </si>
@@ -64,15 +64,9 @@
     <t>Neue Räume einfügen:</t>
   </si>
   <si>
-    <t>Gang Osttreppe</t>
-  </si>
-  <si>
     <t>Gang A 2</t>
   </si>
   <si>
-    <t>Gang Raum der Stille</t>
-  </si>
-  <si>
     <t>BU23</t>
   </si>
   <si>
@@ -113,6 +107,84 @@
   </si>
   <si>
     <t>Gang erster stock gerade ( neue version einfügen, die alte war etwas schief)</t>
+  </si>
+  <si>
+    <t>Gang U_10</t>
+  </si>
+  <si>
+    <t>Gang U_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das is schon im rundgang drinnen </t>
+  </si>
+  <si>
+    <t>nur bild ausbessern</t>
+  </si>
+  <si>
+    <t>Benennung:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang: </t>
+  </si>
+  <si>
+    <t>Gang X_Y_out.xml</t>
+  </si>
+  <si>
+    <t>Gang X_Y.html</t>
+  </si>
+  <si>
+    <t>Gang_X_Y</t>
+  </si>
+  <si>
+    <t>Raum:</t>
+  </si>
+  <si>
+    <t>X_Y_out.xml</t>
+  </si>
+  <si>
+    <t>X_Y.html</t>
+  </si>
+  <si>
+    <t>Room_X_Y</t>
+  </si>
+  <si>
+    <t>Hotspots:</t>
+  </si>
+  <si>
+    <t>Raum betreten:</t>
+  </si>
+  <si>
+    <t>Room_In_X_Y</t>
+  </si>
+  <si>
+    <t>Raum verlassen:</t>
+  </si>
+  <si>
+    <t>Room_Out_X_Y</t>
+  </si>
+  <si>
+    <t>Raum zu Raum:</t>
+  </si>
+  <si>
+    <t>Room_X_Y_To_Room_X2_Y2</t>
+  </si>
+  <si>
+    <t>Gang zu Gang:</t>
+  </si>
+  <si>
+    <t>Gang_X_Y_To_Gang_X2_Y2</t>
+  </si>
+  <si>
+    <t>Im skin; punkte</t>
+  </si>
+  <si>
+    <t>Stockwerkwechsel:</t>
+  </si>
+  <si>
+    <t>SW_X_To_SW_X2</t>
+  </si>
+  <si>
+    <t>? So oder anders?</t>
   </si>
 </sst>
 </file>
@@ -202,12 +274,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -217,7 +304,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +327,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -557,151 +648,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5112DD3-8621-44E7-A656-18F03BB2DF5F}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="133.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\P-Seminar\Git Rundgang\Rundgang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85FC9D-9C59-41C1-8401-6695E32F4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E1C13-656D-4447-A7C7-04EE800B9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A5F55FC-30AE-4287-A9A7-03B76475C86E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Todo:</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>? So oder anders?</t>
+  </si>
+  <si>
+    <t>Naviagation:</t>
+  </si>
+  <si>
+    <t>Treppen Icons auf der Karte - Maxi</t>
+  </si>
+  <si>
+    <t>Karte 1 Stock mit C Bau- Maxi</t>
+  </si>
+  <si>
+    <t>Alle Karten nochmal anpassen</t>
+  </si>
+  <si>
+    <t>Eastereggis</t>
+  </si>
+  <si>
+    <t>Tastenkombination….</t>
   </si>
 </sst>
 </file>
@@ -304,7 +322,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,9 +337,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -331,6 +346,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -648,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5112DD3-8621-44E7-A656-18F03BB2DF5F}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +697,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -720,12 +737,12 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -742,7 +759,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -753,12 +770,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -789,7 +806,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -797,7 +814,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -819,12 +838,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
@@ -835,7 +854,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
@@ -843,12 +862,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
@@ -870,18 +889,44 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827C669-43EA-4B18-95B3-CA4F44F2F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30052" windowHeight="13545"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -196,14 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,138 +256,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,176 +288,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -610,237 +312,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -849,77 +333,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="21"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="21" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Gut" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1177,27 +619,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.2" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="133.425531914894" customWidth="1"/>
-    <col min="2" max="2" width="51.5673758865248" customWidth="1"/>
-    <col min="3" max="3" width="43.8581560283688" customWidth="1"/>
+    <col min="1" max="1" width="133.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53.25" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="53.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1246,12 +688,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>18</v>
@@ -1287,43 +729,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
@@ -1339,15 +781,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:4">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="1:4">
       <c r="C20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
@@ -1355,12 +797,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
         <v>37</v>
       </c>
@@ -1371,7 +813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -1379,12 +821,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
         <v>43</v>
       </c>
@@ -1396,7 +838,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C27" t="s">
@@ -1406,17 +848,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:4">
       <c r="C29" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -1424,8 +866,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="8"/>
@@ -1433,7 +875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="1:3">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -1446,29 +888,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync Drive\Schule\P-Seminar\Projekt\Rundgang so richtig rund!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827C669-43EA-4B18-95B3-CA4F44F2F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC8CE64-0448-4979-97F7-516188351C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Todo:</t>
   </si>
@@ -197,6 +197,33 @@
   </si>
   <si>
     <t>Tastenkombination….</t>
+  </si>
+  <si>
+    <t>Karte 2 Stock D-Bau einfügen!</t>
+  </si>
+  <si>
+    <t>Personen Icons bei gängen</t>
+  </si>
+  <si>
+    <t>Video einabeun… (Hofmann sucht nach einer Methode)</t>
+  </si>
+  <si>
+    <t>EG d bau hinten</t>
+  </si>
+  <si>
+    <t>Pano mit Leuten auf der Bühne</t>
+  </si>
+  <si>
+    <t>Video:</t>
+  </si>
+  <si>
+    <t>Video_Physik u. Video_Chemie</t>
+  </si>
+  <si>
+    <t>"Wasser" in einer Brottüte Bild im 2. Stock…</t>
+  </si>
+  <si>
+    <t>Nacktbild im ersten Stock über der aula im Schacht!!!</t>
   </si>
 </sst>
 </file>
@@ -625,17 +652,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="133.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="133.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" customWidth="1"/>
+    <col min="3" max="3" width="43.86328125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -782,7 +809,9 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
@@ -854,58 +883,92 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="C29" s="12" t="s">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="C33" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
